--- a/Exercise 3/19520358_SE330.M22.PMCL_BoBaiTapSo3.xlsx
+++ b/Exercise 3/19520358_SE330.M22.PMCL_BoBaiTapSo3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="10485"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -164,136 +164,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +187,128 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +401,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,73 +497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,19 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,11 +667,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +702,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,17 +732,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -726,17 +739,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,164 +764,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,7 +956,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,7 +1220,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1534,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1566,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1598,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1629,8 +1628,8 @@
       <c r="B13" s="25">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="b">
-        <v>0</v>
+      <c r="C13" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1661,8 +1660,8 @@
       <c r="B14" s="25">
         <v>5</v>
       </c>
-      <c r="C14" s="27" t="b">
-        <v>0</v>
+      <c r="C14" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
